--- a/data/trans_orig/P55S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C37FFC4-B3DD-4885-87FF-FE7D50178F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC92D4C-6EE6-4B20-AEF7-9A1DF7B5C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A7F6D99-4A0D-49A7-8B17-5C44FBCBC009}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDBAC82E-E2A8-4855-A1AA-0D184345B805}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -286,13 +286,13 @@
     <t>13,0%</t>
   </si>
   <si>
-    <t>59,65%</t>
+    <t>57,32%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>61,45%</t>
+    <t>60,38%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -301,16 +301,16 @@
     <t>87,0%</t>
   </si>
   <si>
-    <t>40,35%</t>
+    <t>42,68%</t>
   </si>
   <si>
     <t>55,61%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>24,09%</t>
@@ -319,7 +319,7 @@
     <t>8,69%</t>
   </si>
   <si>
-    <t>36,45%</t>
+    <t>45,51%</t>
   </si>
   <si>
     <t>43,34%</t>
@@ -328,7 +328,7 @@
     <t>15,64%</t>
   </si>
   <si>
-    <t>55,45%</t>
+    <t>56,28%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -352,16 +352,16 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>15,32%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>37,22%</t>
@@ -376,19 +376,19 @@
     <t>65,55%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>14,4%</t>
@@ -400,19 +400,19 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>29,73%</t>
@@ -427,16 +427,16 @@
     <t>2,45%</t>
   </si>
   <si>
-    <t>14,07%</t>
+    <t>11,9%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>10,63%</t>
@@ -448,19 +448,19 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8AED39-0A68-48A9-BEBE-CB969ECCF9E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA285E31-5519-4968-B25A-A95ECD8374B1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2361,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B37C7E-4CE4-469C-8B34-EDC0083EB972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE09047-5545-43C5-A0F7-AD31CB4CB0DF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3816,7 +3816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E9ABE7-829F-46C7-92E9-5B531C37508D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74474CC-AAEE-443E-896C-ABB56514FBB6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P55S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S3-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC92D4C-6EE6-4B20-AEF7-9A1DF7B5C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{592AECB8-7485-4ECC-8248-E323A562DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDBAC82E-E2A8-4855-A1AA-0D184345B805}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A565BD8-BF77-4B51-9115-962395E87213}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -103,13 +103,13 @@
     <t>69,0%</t>
   </si>
   <si>
-    <t>26,36%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>73,62%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>31,11%</t>
   </si>
   <si>
     <t>Ayuda privada (pagada)</t>
@@ -124,13 +124,13 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>64,77%</t>
+    <t>65,88%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>61,05%</t>
+    <t>55,39%</t>
   </si>
   <si>
     <t>Un familiar que vive con usted</t>
@@ -139,13 +139,13 @@
     <t>15,77%</t>
   </si>
   <si>
-    <t>65,56%</t>
+    <t>65,75%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>55,48%</t>
+    <t>44,34%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -160,7 +160,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,65%)</t>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA285E31-5519-4968-B25A-A95ECD8374B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DA05F3-3934-4096-A1D9-F4CC074EFDC2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2361,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE09047-5545-43C5-A0F7-AD31CB4CB0DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412B807A-2B61-4618-9CAD-4DD658048D86}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3816,7 +3816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74474CC-AAEE-443E-896C-ABB56514FBB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD62C33C-23FC-4C2B-9F55-971D6DDBAA3C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
